--- a/REGULAR/DE CASTRO, JOSEPH NHOEL T..xlsx
+++ b/REGULAR/DE CASTRO, JOSEPH NHOEL T..xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
   <si>
     <t>PERIOD</t>
   </si>
@@ -205,6 +205,15 @@
   </si>
   <si>
     <t>VL(1-0-0)</t>
+  </si>
+  <si>
+    <t>VL(62-0-0)</t>
+  </si>
+  <si>
+    <t>10/2 - 12/29/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1086,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1120,7 +1129,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1184,7 +1193,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1244,7 +1253,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1310,7 +1319,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1373,7 +1382,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1471,7 +1480,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1530,7 +1539,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1595,7 +1604,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1638,7 +1647,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1713,7 +1722,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1899,7 +1908,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1965,7 +1974,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2023,7 +2032,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2089,7 +2098,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2145,7 +2154,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2220,7 +2229,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2263,7 +2272,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2329,7 +2338,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2385,7 +2394,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2483,7 +2492,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2546,7 +2555,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2612,7 +2621,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K137" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K138" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -2990,12 +2999,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K137"/>
+  <dimension ref="A2:K138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A70" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A82" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="E89" sqref="E89"/>
+      <selection pane="bottomLeft" activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3162,7 +3171,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>62.75</v>
+        <v>5.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3172,7 +3181,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>88.75</v>
+        <v>93.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4754,15 +4763,17 @@
       <c r="B88" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C88" s="13"/>
+      <c r="C88" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D88" s="39">
         <v>1</v>
       </c>
       <c r="E88" s="9"/>
       <c r="F88" s="20"/>
-      <c r="G88" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G88" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H88" s="39"/>
       <c r="I88" s="9"/>
@@ -4775,32 +4786,42 @@
       <c r="A89" s="40">
         <v>45230</v>
       </c>
-      <c r="B89" s="20"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="39"/>
+      <c r="B89" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C89" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D89" s="39">
+        <v>62</v>
+      </c>
       <c r="E89" s="9"/>
       <c r="F89" s="20"/>
-      <c r="G89" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G89" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H89" s="39"/>
       <c r="I89" s="9"/>
       <c r="J89" s="11"/>
-      <c r="K89" s="20"/>
+      <c r="K89" s="20" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>45260</v>
       </c>
       <c r="B90" s="20"/>
-      <c r="C90" s="13"/>
+      <c r="C90" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D90" s="39"/>
       <c r="E90" s="9"/>
       <c r="F90" s="20"/>
-      <c r="G90" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G90" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H90" s="39"/>
       <c r="I90" s="9"/>
@@ -4812,13 +4833,15 @@
         <v>45291</v>
       </c>
       <c r="B91" s="20"/>
-      <c r="C91" s="13"/>
+      <c r="C91" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D91" s="39"/>
       <c r="E91" s="9"/>
       <c r="F91" s="20"/>
-      <c r="G91" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G91" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H91" s="39"/>
       <c r="I91" s="9"/>
@@ -4826,8 +4849,8 @@
       <c r="K91" s="20"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="40">
-        <v>45322</v>
+      <c r="A92" s="51" t="s">
+        <v>59</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4845,7 +4868,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
-        <v>45351</v>
+        <v>45322</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4863,7 +4886,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4881,7 +4904,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4899,7 +4922,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
-        <v>45443</v>
+        <v>45412</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4917,7 +4940,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
-        <v>45473</v>
+        <v>45443</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4935,7 +4958,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
-        <v>45504</v>
+        <v>45473</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4953,7 +4976,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
-        <v>45535</v>
+        <v>45504</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4971,7 +4994,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
-        <v>45565</v>
+        <v>45535</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4989,7 +5012,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
-        <v>45596</v>
+        <v>45565</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5007,7 +5030,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
-        <v>45626</v>
+        <v>45596</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5025,7 +5048,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
-        <v>45657</v>
+        <v>45626</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5043,7 +5066,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
-        <v>45688</v>
+        <v>45657</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5061,7 +5084,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
-        <v>45716</v>
+        <v>45688</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5079,7 +5102,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
-        <v>45747</v>
+        <v>45716</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5097,7 +5120,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
-        <v>45777</v>
+        <v>45747</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5115,7 +5138,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
-        <v>45808</v>
+        <v>45777</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5133,7 +5156,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
-        <v>45838</v>
+        <v>45808</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5151,7 +5174,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
-        <v>45869</v>
+        <v>45838</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5169,7 +5192,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5187,7 +5210,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5205,7 +5228,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
-        <v>45961</v>
+        <v>45930</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5223,7 +5246,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
-        <v>45991</v>
+        <v>45961</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5241,7 +5264,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
-        <v>46022</v>
+        <v>45991</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5259,7 +5282,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
-        <v>46053</v>
+        <v>46022</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5277,7 +5300,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
-        <v>46081</v>
+        <v>46053</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5295,7 +5318,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
-        <v>46112</v>
+        <v>46081</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5313,7 +5336,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
-        <v>46142</v>
+        <v>46112</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5331,7 +5354,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <v>46173</v>
+        <v>46142</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5348,7 +5371,9 @@
       <c r="K120" s="20"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="40"/>
+      <c r="A121" s="40">
+        <v>46173</v>
+      </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
       <c r="D121" s="39"/>
@@ -5588,36 +5613,52 @@
       <c r="K135" s="20"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="41"/>
-      <c r="B136" s="15"/>
-      <c r="C136" s="42"/>
-      <c r="D136" s="43"/>
+      <c r="A136" s="40"/>
+      <c r="B136" s="20"/>
+      <c r="C136" s="13"/>
+      <c r="D136" s="39"/>
       <c r="E136" s="9"/>
-      <c r="F136" s="15"/>
-      <c r="G136" s="42" t="str">
+      <c r="F136" s="20"/>
+      <c r="G136" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H136" s="43"/>
+      <c r="H136" s="39"/>
       <c r="I136" s="9"/>
-      <c r="J136" s="12"/>
-      <c r="K136" s="15"/>
+      <c r="J136" s="11"/>
+      <c r="K136" s="20"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="41"/>
       <c r="B137" s="15"/>
       <c r="C137" s="42"/>
       <c r="D137" s="43"/>
-      <c r="E137" s="49"/>
+      <c r="E137" s="9"/>
       <c r="F137" s="15"/>
       <c r="G137" s="42" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H137" s="43"/>
-      <c r="I137" s="49"/>
+      <c r="I137" s="9"/>
       <c r="J137" s="12"/>
       <c r="K137" s="15"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" s="41"/>
+      <c r="B138" s="15"/>
+      <c r="C138" s="42"/>
+      <c r="D138" s="43"/>
+      <c r="E138" s="49"/>
+      <c r="F138" s="15"/>
+      <c r="G138" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H138" s="43"/>
+      <c r="I138" s="49"/>
+      <c r="J138" s="12"/>
+      <c r="K138" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5781,7 +5822,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="50">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>151.5</v>
+        <v>99.5</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
